--- a/final-project/Groups.xlsx
+++ b/final-project/Groups.xlsx
@@ -5,20 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/altheasmith/GA-Data-Science/ds-homework/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/altheasmith/GA-Data-Science/ds-homework/final-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="460" windowWidth="19080" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="12220" yWindow="460" windowWidth="19080" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="World" sheetId="1" r:id="rId1"/>
     <sheet name="British Colonies" sheetId="3" r:id="rId2"/>
-    <sheet name="OECD" sheetId="4" r:id="rId3"/>
-    <sheet name="Pew Global" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="OECD" sheetId="4" r:id="rId4"/>
+    <sheet name="Pew Global" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'British Colonies'!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'British Colonies'!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">World!$A$1:$U$1</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="403">
   <si>
     <t>Australia</t>
   </si>
@@ -747,12 +748,6 @@
     <t>Attempted</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Parts</t>
   </si>
   <si>
@@ -772,9 +767,6 @@
   </si>
   <si>
     <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Kind of</t>
   </si>
   <si>
     <t>Aden</t>
@@ -1300,13 +1292,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1586,7 +1579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U181"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -4497,10 +4490,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4510,639 +4503,547 @@
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B3" t="s">
-        <v>246</v>
+        <v>212</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
       </c>
       <c r="C3" t="s">
         <v>236</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B4" t="s">
-        <v>246</v>
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
       </c>
       <c r="C4" t="s">
         <v>236</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>246</v>
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>246</v>
+        <v>235</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
       </c>
       <c r="C6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>235</v>
-      </c>
-      <c r="B7" t="s">
-        <v>246</v>
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
       </c>
       <c r="C7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>246</v>
+        <v>221</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
       </c>
       <c r="C8" t="s">
-        <v>239</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>221</v>
-      </c>
-      <c r="B9" t="s">
-        <v>246</v>
+        <v>215</v>
+      </c>
+      <c r="B9">
+        <v>0.5</v>
       </c>
       <c r="C9" t="s">
-        <v>239</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B10" t="s">
-        <v>246</v>
+        <v>224</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
       </c>
       <c r="C10" t="s">
-        <v>239</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>224</v>
-      </c>
-      <c r="B11" t="s">
-        <v>246</v>
+        <v>230</v>
+      </c>
+      <c r="B11">
+        <v>0.5</v>
       </c>
       <c r="C11" t="s">
         <v>239</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B12" t="s">
-        <v>246</v>
+        <v>233</v>
+      </c>
+      <c r="B12">
+        <v>0.5</v>
       </c>
       <c r="C12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>218</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>241</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>233</v>
-      </c>
-      <c r="B13" t="s">
-        <v>246</v>
-      </c>
-      <c r="C13" t="s">
-        <v>241</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>207</v>
-      </c>
-      <c r="B14" t="s">
-        <v>246</v>
-      </c>
-      <c r="C14" t="s">
-        <v>242</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>222</v>
-      </c>
-      <c r="B15" t="s">
-        <v>246</v>
-      </c>
-      <c r="C15" t="s">
-        <v>242</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>220</v>
-      </c>
-      <c r="B16" t="s">
-        <v>237</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>209</v>
-      </c>
-      <c r="B17" t="s">
-        <v>237</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>234</v>
-      </c>
-      <c r="B18" t="s">
-        <v>237</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>213</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>214</v>
+      </c>
+      <c r="B41">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>225</v>
-      </c>
-      <c r="B19" t="s">
-        <v>237</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>216</v>
-      </c>
-      <c r="B20" t="s">
-        <v>237</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>229</v>
-      </c>
-      <c r="B21" t="s">
-        <v>237</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>237</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>237</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>205</v>
-      </c>
-      <c r="B24" t="s">
-        <v>237</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>218</v>
-      </c>
-      <c r="B25" t="s">
-        <v>237</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>243</v>
-      </c>
-      <c r="B26" t="s">
-        <v>237</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>210</v>
-      </c>
-      <c r="B27" t="s">
-        <v>237</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="2" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>226</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>211</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>228</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>219</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>237</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" t="s">
-        <v>237</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>213</v>
-      </c>
-      <c r="B31" t="s">
-        <v>237</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>214</v>
-      </c>
-      <c r="B32" t="s">
-        <v>238</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B57">
         <v>1</v>
       </c>
-      <c r="B33" t="s">
-        <v>238</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" t="s">
-        <v>238</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>226</v>
-      </c>
-      <c r="B35" t="s">
-        <v>238</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s">
-        <v>238</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>211</v>
-      </c>
-      <c r="B37" t="s">
-        <v>238</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>228</v>
-      </c>
-      <c r="B38" t="s">
-        <v>238</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>219</v>
-      </c>
-      <c r="B39" t="s">
-        <v>238</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>206</v>
-      </c>
-      <c r="B40" t="s">
-        <v>238</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>204</v>
-      </c>
-      <c r="B41" t="s">
-        <v>238</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" t="s">
-        <v>238</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>208</v>
-      </c>
-      <c r="B43" t="s">
-        <v>238</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" t="s">
-        <v>238</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="G46" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="G47" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="G48" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="49" spans="7:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="G49" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="50" spans="7:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="G50" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="51" spans="7:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="G51" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="52" spans="7:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="G52" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="53" spans="7:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="G53" s="2" t="s">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="54" spans="7:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="G54" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="55" spans="7:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="G55" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="56" spans="7:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="G56" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="57" spans="7:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="G57" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="58" spans="7:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="G58" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="59" spans="7:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="G59" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="60" spans="7:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="G60" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="61" spans="7:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="G61" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="62" spans="7:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="G62" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="63" spans="7:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="G63" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="64" spans="7:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="G64" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="65" spans="7:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="G65" s="2" t="s">
-        <v>301</v>
-      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="4"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="4"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="4"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="4"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:C2">
-    <sortState ref="A3:C45">
-      <sortCondition ref="B2:B45"/>
+  <autoFilter ref="A1:C60">
+    <sortState ref="A2:C60">
+      <sortCondition ref="B1:B60"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5150,6 +5051,341 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A64"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY50"/>
   <sheetViews>
@@ -5164,297 +5400,297 @@
         <v>#NAME?</v>
       </c>
       <c r="B1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" t="s">
+        <v>306</v>
+      </c>
+      <c r="J5" t="s">
+        <v>307</v>
+      </c>
+      <c r="N5" t="s">
         <v>308</v>
       </c>
-      <c r="D5" t="s">
+      <c r="V5" t="s">
         <v>309</v>
       </c>
-      <c r="J5" t="s">
+      <c r="X5" t="s">
         <v>310</v>
       </c>
-      <c r="N5" t="s">
+      <c r="AD5" t="s">
         <v>311</v>
       </c>
-      <c r="V5" t="s">
+      <c r="AH5" t="s">
         <v>312</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AL5" t="s">
         <v>313</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AP5" t="s">
         <v>314</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AR5" t="s">
         <v>315</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AV5" t="s">
         <v>316</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>317</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>318</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F6" t="s">
+        <v>318</v>
+      </c>
+      <c r="H6" t="s">
+        <v>319</v>
+      </c>
+      <c r="J6" t="s">
         <v>320</v>
       </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>321</v>
       </c>
-      <c r="H6" t="s">
+      <c r="N6" t="s">
         <v>322</v>
       </c>
-      <c r="J6" t="s">
+      <c r="P6" t="s">
         <v>323</v>
       </c>
-      <c r="L6" t="s">
+      <c r="R6" t="s">
         <v>324</v>
       </c>
-      <c r="N6" t="s">
+      <c r="T6" t="s">
         <v>325</v>
       </c>
-      <c r="P6" t="s">
+      <c r="V6" t="s">
         <v>326</v>
       </c>
-      <c r="R6" t="s">
+      <c r="X6" t="s">
         <v>327</v>
       </c>
-      <c r="T6" t="s">
+      <c r="Z6" t="s">
         <v>328</v>
       </c>
-      <c r="V6" t="s">
+      <c r="AB6" t="s">
         <v>329</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AD6" t="s">
         <v>330</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AF6" t="s">
         <v>331</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AH6" t="s">
         <v>332</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AJ6" t="s">
         <v>333</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AL6" t="s">
         <v>334</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AN6" t="s">
         <v>335</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AP6" t="s">
         <v>336</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AR6" t="s">
         <v>337</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AT6" t="s">
         <v>338</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AV6" t="s">
         <v>339</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AX6" t="s">
         <v>340</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>341</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>342</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H7" t="s">
+        <v>343</v>
+      </c>
+      <c r="J7" t="s">
         <v>344</v>
       </c>
-      <c r="D7" t="s">
+      <c r="L7" t="s">
+        <v>344</v>
+      </c>
+      <c r="N7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P7" t="s">
+        <v>342</v>
+      </c>
+      <c r="R7" t="s">
+        <v>342</v>
+      </c>
+      <c r="T7" t="s">
+        <v>344</v>
+      </c>
+      <c r="V7" t="s">
+        <v>342</v>
+      </c>
+      <c r="X7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z7" t="s">
         <v>345</v>
       </c>
-      <c r="F7" t="s">
+      <c r="AB7" t="s">
+        <v>346</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>347</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH7" t="s">
         <v>345</v>
       </c>
-      <c r="H7" t="s">
+      <c r="AJ7" t="s">
+        <v>342</v>
+      </c>
+      <c r="AL7" t="s">
         <v>346</v>
       </c>
-      <c r="J7" t="s">
-        <v>347</v>
-      </c>
-      <c r="L7" t="s">
-        <v>347</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="AN7" t="s">
+        <v>342</v>
+      </c>
+      <c r="AP7" t="s">
         <v>345</v>
       </c>
-      <c r="P7" t="s">
-        <v>345</v>
-      </c>
-      <c r="R7" t="s">
-        <v>345</v>
-      </c>
-      <c r="T7" t="s">
-        <v>347</v>
-      </c>
-      <c r="V7" t="s">
-        <v>345</v>
-      </c>
-      <c r="X7" t="s">
-        <v>345</v>
-      </c>
-      <c r="Z7" t="s">
+      <c r="AR7" t="s">
+        <v>342</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>343</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>342</v>
+      </c>
+      <c r="AX7" t="s">
         <v>348</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>349</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>350</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>345</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>348</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>345</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>349</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>345</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>348</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>345</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>346</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>345</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="N8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="P8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="R8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="T8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="V8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="X8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Z8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AB8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AD8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AF8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AH8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AJ8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AL8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AN8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AP8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AR8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AT8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AV8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AX8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.2">
@@ -5462,148 +5698,148 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D9" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E9">
         <v>1.1000000000000001</v>
       </c>
       <c r="F9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G9">
         <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I9">
         <v>2.2999999999999998</v>
       </c>
       <c r="J9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K9">
         <v>33138</v>
       </c>
       <c r="L9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M9">
         <v>48836</v>
       </c>
       <c r="N9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O9">
         <v>3.9</v>
       </c>
       <c r="P9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q9">
         <v>72</v>
       </c>
       <c r="R9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S9">
         <v>1.32</v>
       </c>
       <c r="T9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U9">
         <v>51148</v>
       </c>
       <c r="V9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W9">
         <v>95</v>
       </c>
       <c r="X9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y9">
         <v>77</v>
       </c>
       <c r="Z9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA9">
         <v>512</v>
       </c>
       <c r="AB9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC9">
         <v>19.2</v>
       </c>
       <c r="AD9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE9">
         <v>6</v>
       </c>
       <c r="AF9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG9">
         <v>94</v>
       </c>
       <c r="AH9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI9">
         <v>2.7</v>
       </c>
       <c r="AJ9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK9">
         <v>93</v>
       </c>
       <c r="AL9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM9">
         <v>82.2</v>
       </c>
       <c r="AN9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO9">
         <v>85</v>
       </c>
       <c r="AP9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ9">
         <v>7.3</v>
       </c>
       <c r="AR9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS9">
         <v>62.6</v>
       </c>
       <c r="AT9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU9">
         <v>0.8</v>
       </c>
       <c r="AV9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW9">
         <v>13.39</v>
       </c>
       <c r="AX9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AY9">
         <v>14.35</v>
@@ -5611,151 +5847,151 @@
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G10">
         <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I10">
         <v>1.6</v>
       </c>
       <c r="J10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K10">
         <v>31667</v>
       </c>
       <c r="L10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M10">
         <v>55623</v>
       </c>
       <c r="N10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O10">
         <v>2.2000000000000002</v>
       </c>
       <c r="P10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q10">
         <v>71</v>
       </c>
       <c r="R10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S10">
         <v>1.53</v>
       </c>
       <c r="T10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U10">
         <v>45988</v>
       </c>
       <c r="V10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W10">
         <v>93</v>
       </c>
       <c r="X10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y10">
         <v>84</v>
       </c>
       <c r="Z10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA10">
         <v>500</v>
       </c>
       <c r="AB10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC10">
         <v>17.100000000000001</v>
       </c>
       <c r="AD10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE10">
         <v>15</v>
       </c>
       <c r="AF10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG10">
         <v>93</v>
       </c>
       <c r="AH10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI10">
         <v>1.3</v>
       </c>
       <c r="AJ10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK10">
         <v>75</v>
       </c>
       <c r="AL10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM10">
         <v>81.2</v>
       </c>
       <c r="AN10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO10">
         <v>69</v>
       </c>
       <c r="AP10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ10">
         <v>7.1</v>
       </c>
       <c r="AR10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS10">
         <v>81.2</v>
       </c>
       <c r="AT10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU10">
         <v>0.4</v>
       </c>
       <c r="AV10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW10">
         <v>7.32</v>
       </c>
       <c r="AX10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AY10">
         <v>14.55</v>
@@ -5763,151 +5999,151 @@
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E11">
         <v>2.1</v>
       </c>
       <c r="F11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G11">
         <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I11">
         <v>2.2000000000000002</v>
       </c>
       <c r="J11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K11">
         <v>28700</v>
       </c>
       <c r="L11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M11">
         <v>89057</v>
       </c>
       <c r="N11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O11">
         <v>3.6</v>
       </c>
       <c r="P11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q11">
         <v>62</v>
       </c>
       <c r="R11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S11">
         <v>4.26</v>
       </c>
       <c r="T11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U11">
         <v>48093</v>
       </c>
       <c r="V11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W11">
         <v>88</v>
       </c>
       <c r="X11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y11">
         <v>74</v>
       </c>
       <c r="Z11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA11">
         <v>509</v>
       </c>
       <c r="AB11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC11">
         <v>18.8</v>
       </c>
       <c r="AD11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE11">
         <v>19</v>
       </c>
       <c r="AF11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG11">
         <v>83</v>
       </c>
       <c r="AH11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI11">
         <v>2.2000000000000002</v>
       </c>
       <c r="AJ11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK11">
         <v>89</v>
       </c>
       <c r="AL11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM11">
         <v>80.7</v>
       </c>
       <c r="AN11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO11">
         <v>74</v>
       </c>
       <c r="AP11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ11">
         <v>6.9</v>
       </c>
       <c r="AR11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS11">
         <v>69.599999999999994</v>
       </c>
       <c r="AT11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU11">
         <v>1.1000000000000001</v>
       </c>
       <c r="AV11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW11">
         <v>4.7300000000000004</v>
       </c>
       <c r="AX11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AY11">
         <v>15.77</v>
@@ -5918,148 +6154,148 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E12">
         <v>0.2</v>
       </c>
       <c r="F12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G12">
         <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I12">
         <v>2.5</v>
       </c>
       <c r="J12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K12">
         <v>30474</v>
       </c>
       <c r="L12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M12">
         <v>75775</v>
       </c>
       <c r="N12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O12">
         <v>3.9</v>
       </c>
       <c r="P12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q12">
         <v>72</v>
       </c>
       <c r="R12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S12">
         <v>0.89</v>
       </c>
       <c r="T12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U12">
         <v>48164</v>
       </c>
       <c r="V12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W12">
         <v>94</v>
       </c>
       <c r="X12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y12">
         <v>90</v>
       </c>
       <c r="Z12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA12">
         <v>522</v>
       </c>
       <c r="AB12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC12">
         <v>16.3</v>
       </c>
       <c r="AD12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE12">
         <v>12</v>
       </c>
       <c r="AF12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG12">
         <v>90</v>
       </c>
       <c r="AH12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI12">
         <v>3</v>
       </c>
       <c r="AJ12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK12">
         <v>68</v>
       </c>
       <c r="AL12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM12">
         <v>81.5</v>
       </c>
       <c r="AN12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO12">
         <v>89</v>
       </c>
       <c r="AP12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ12">
         <v>7.4</v>
       </c>
       <c r="AR12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS12">
         <v>81.7</v>
       </c>
       <c r="AT12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU12">
         <v>1.5</v>
       </c>
       <c r="AV12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW12">
         <v>3.83</v>
       </c>
       <c r="AX12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AY12">
         <v>14.41</v>
@@ -6067,151 +6303,151 @@
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E13">
         <v>9.4</v>
       </c>
       <c r="F13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G13">
         <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I13">
         <v>1.2</v>
       </c>
       <c r="J13" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K13">
         <v>15094</v>
       </c>
       <c r="L13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M13">
         <v>18172</v>
       </c>
       <c r="N13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O13">
         <v>8.1</v>
       </c>
       <c r="P13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q13">
         <v>62</v>
       </c>
       <c r="R13" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="S13">
         <v>1.67</v>
       </c>
       <c r="T13" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="U13">
         <v>21370</v>
       </c>
       <c r="V13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W13">
         <v>82</v>
       </c>
       <c r="X13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y13">
         <v>61</v>
       </c>
       <c r="Z13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA13">
         <v>436</v>
       </c>
       <c r="AB13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC13">
         <v>17.100000000000001</v>
       </c>
       <c r="AD13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE13">
         <v>18</v>
       </c>
       <c r="AF13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG13">
         <v>71</v>
       </c>
       <c r="AH13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI13">
         <v>1.5</v>
       </c>
       <c r="AJ13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK13">
         <v>49</v>
       </c>
       <c r="AL13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM13">
         <v>78.8</v>
       </c>
       <c r="AN13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO13">
         <v>59</v>
       </c>
       <c r="AP13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ13">
         <v>6.5</v>
       </c>
       <c r="AR13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS13">
         <v>50.2</v>
       </c>
       <c r="AT13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU13">
         <v>3.8</v>
       </c>
       <c r="AV13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW13">
         <v>13.84</v>
       </c>
       <c r="AX13" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AY13">
         <v>14.91</v>
@@ -6219,151 +6455,151 @@
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E14">
         <v>0.7</v>
       </c>
       <c r="F14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G14">
         <v>26</v>
       </c>
       <c r="H14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I14">
         <v>1.4</v>
       </c>
       <c r="J14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K14">
         <v>18953</v>
       </c>
       <c r="L14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M14">
         <v>20170</v>
       </c>
       <c r="N14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O14">
         <v>4.7</v>
       </c>
       <c r="P14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q14">
         <v>69</v>
       </c>
       <c r="R14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S14">
         <v>2.72</v>
       </c>
       <c r="T14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U14">
         <v>21185</v>
       </c>
       <c r="V14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W14">
         <v>90</v>
       </c>
       <c r="X14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y14">
         <v>93</v>
       </c>
       <c r="Z14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA14">
         <v>500</v>
       </c>
       <c r="AB14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC14">
         <v>17.399999999999999</v>
       </c>
       <c r="AD14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE14">
         <v>17</v>
       </c>
       <c r="AF14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG14">
         <v>88</v>
       </c>
       <c r="AH14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI14">
         <v>2.6</v>
       </c>
       <c r="AJ14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK14">
         <v>59</v>
       </c>
       <c r="AL14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM14">
         <v>78.3</v>
       </c>
       <c r="AN14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO14">
         <v>60</v>
       </c>
       <c r="AP14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ14">
         <v>6.6</v>
       </c>
       <c r="AR14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS14">
         <v>70.099999999999994</v>
       </c>
       <c r="AT14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU14">
         <v>0.9</v>
       </c>
       <c r="AV14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW14">
         <v>5.99</v>
       </c>
       <c r="AX14" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AY14">
         <v>15.03</v>
@@ -6371,151 +6607,151 @@
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E15">
         <v>0.5</v>
       </c>
       <c r="F15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G15">
         <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I15">
         <v>1.9</v>
       </c>
       <c r="J15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K15">
         <v>26945</v>
       </c>
       <c r="L15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M15">
         <v>54839</v>
       </c>
       <c r="N15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O15">
         <v>2.2999999999999998</v>
       </c>
       <c r="P15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q15">
         <v>73</v>
       </c>
       <c r="R15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S15">
         <v>1.66</v>
       </c>
       <c r="T15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U15">
         <v>49589</v>
       </c>
       <c r="V15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W15">
         <v>96</v>
       </c>
       <c r="X15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y15">
         <v>80</v>
       </c>
       <c r="Z15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA15">
         <v>498</v>
       </c>
       <c r="AB15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC15">
         <v>19.600000000000001</v>
       </c>
       <c r="AD15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE15">
         <v>11</v>
       </c>
       <c r="AF15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG15">
         <v>95</v>
       </c>
       <c r="AH15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI15">
         <v>2.1</v>
       </c>
       <c r="AJ15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK15">
         <v>86</v>
       </c>
       <c r="AL15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM15">
         <v>80.400000000000006</v>
       </c>
       <c r="AN15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO15">
         <v>72</v>
       </c>
       <c r="AP15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ15">
         <v>7.5</v>
       </c>
       <c r="AR15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS15">
         <v>85.2</v>
       </c>
       <c r="AT15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU15">
         <v>0.3</v>
       </c>
       <c r="AV15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW15">
         <v>2.21</v>
       </c>
       <c r="AX15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AY15">
         <v>15.87</v>
@@ -6523,151 +6759,151 @@
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E16">
         <v>7.2</v>
       </c>
       <c r="F16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G16">
         <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I16">
         <v>1.6</v>
       </c>
       <c r="J16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K16">
         <v>16565</v>
       </c>
       <c r="L16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M16">
         <v>15728</v>
       </c>
       <c r="N16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O16">
         <v>7.6</v>
       </c>
       <c r="P16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q16">
         <v>70</v>
       </c>
       <c r="R16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S16">
         <v>3.32</v>
       </c>
       <c r="T16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U16">
         <v>21020</v>
       </c>
       <c r="V16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W16">
         <v>90</v>
       </c>
       <c r="X16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y16">
         <v>91</v>
       </c>
       <c r="Z16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA16">
         <v>526</v>
       </c>
       <c r="AB16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC16">
         <v>17.8</v>
       </c>
       <c r="AD16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE16">
         <v>9</v>
       </c>
       <c r="AF16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG16">
         <v>84</v>
       </c>
       <c r="AH16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI16">
         <v>2.8</v>
       </c>
       <c r="AJ16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK16">
         <v>64</v>
       </c>
       <c r="AL16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM16">
         <v>77.3</v>
       </c>
       <c r="AN16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO16">
         <v>53</v>
       </c>
       <c r="AP16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ16">
         <v>5.6</v>
       </c>
       <c r="AR16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS16">
         <v>67.2</v>
       </c>
       <c r="AT16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU16">
         <v>4.8</v>
       </c>
       <c r="AV16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW16">
         <v>3.29</v>
       </c>
       <c r="AX16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AY16">
         <v>14.9</v>
@@ -6675,151 +6911,151 @@
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E17">
         <v>0.6</v>
       </c>
       <c r="F17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G17">
         <v>22</v>
       </c>
       <c r="H17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I17">
         <v>1.9</v>
       </c>
       <c r="J17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K17">
         <v>28238</v>
       </c>
       <c r="L17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M17">
         <v>24482</v>
       </c>
       <c r="N17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O17">
         <v>2.6</v>
       </c>
       <c r="P17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q17">
         <v>69</v>
       </c>
       <c r="R17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S17">
         <v>1.97</v>
       </c>
       <c r="T17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U17">
         <v>40742</v>
       </c>
       <c r="V17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W17">
         <v>94</v>
       </c>
       <c r="X17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y17">
         <v>87</v>
       </c>
       <c r="Z17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA17">
         <v>529</v>
       </c>
       <c r="AB17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC17">
         <v>19.7</v>
       </c>
       <c r="AD17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE17">
         <v>7</v>
       </c>
       <c r="AF17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG17">
         <v>94</v>
       </c>
       <c r="AH17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI17">
         <v>2.2999999999999998</v>
       </c>
       <c r="AJ17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK17">
         <v>69</v>
       </c>
       <c r="AL17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM17">
         <v>81.099999999999994</v>
       </c>
       <c r="AN17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO17">
         <v>65</v>
       </c>
       <c r="AP17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ17">
         <v>7.4</v>
       </c>
       <c r="AR17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS17">
         <v>85.8</v>
       </c>
       <c r="AT17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU17">
         <v>1.5</v>
       </c>
       <c r="AV17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW17">
         <v>3.6</v>
       </c>
       <c r="AX17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AY17">
         <v>15.17</v>
@@ -6830,148 +7066,148 @@
         <v>234</v>
       </c>
       <c r="C18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E18">
         <v>0.5</v>
       </c>
       <c r="F18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G18">
         <v>21</v>
       </c>
       <c r="H18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I18">
         <v>1.8</v>
       </c>
       <c r="J18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K18">
         <v>29759</v>
       </c>
       <c r="L18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M18">
         <v>53851</v>
       </c>
       <c r="N18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O18">
         <v>4.5999999999999996</v>
       </c>
       <c r="P18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q18">
         <v>64</v>
       </c>
       <c r="R18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S18">
         <v>4.21</v>
       </c>
       <c r="T18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U18">
         <v>40828</v>
       </c>
       <c r="V18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W18">
         <v>89</v>
       </c>
       <c r="X18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y18">
         <v>75</v>
       </c>
       <c r="Z18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA18">
         <v>500</v>
       </c>
       <c r="AB18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC18">
         <v>16.399999999999999</v>
       </c>
       <c r="AD18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE18">
         <v>14</v>
       </c>
       <c r="AF18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG18">
         <v>84</v>
       </c>
       <c r="AH18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI18">
         <v>2.1</v>
       </c>
       <c r="AJ18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK18">
         <v>80</v>
       </c>
       <c r="AL18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM18">
         <v>82.3</v>
       </c>
       <c r="AN18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO18">
         <v>67</v>
       </c>
       <c r="AP18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ18">
         <v>6.4</v>
       </c>
       <c r="AR18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS18">
         <v>70.599999999999994</v>
       </c>
       <c r="AT18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU18">
         <v>0.6</v>
       </c>
       <c r="AV18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW18">
         <v>7.77</v>
       </c>
       <c r="AX18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AY18">
         <v>16.36</v>
@@ -6982,148 +7218,148 @@
         <v>225</v>
       </c>
       <c r="C19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G19">
         <v>22</v>
       </c>
       <c r="H19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I19">
         <v>1.8</v>
       </c>
       <c r="J19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K19">
         <v>31925</v>
       </c>
       <c r="L19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M19">
         <v>49822</v>
       </c>
       <c r="N19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O19">
         <v>2.7</v>
       </c>
       <c r="P19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q19">
         <v>74</v>
       </c>
       <c r="R19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S19">
         <v>2.21</v>
       </c>
       <c r="T19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U19">
         <v>43872</v>
       </c>
       <c r="V19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W19">
         <v>92</v>
       </c>
       <c r="X19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y19">
         <v>87</v>
       </c>
       <c r="Z19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA19">
         <v>515</v>
       </c>
       <c r="AB19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC19">
         <v>18.100000000000001</v>
       </c>
       <c r="AD19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE19">
         <v>15</v>
       </c>
       <c r="AF19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG19">
         <v>94</v>
       </c>
       <c r="AH19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI19">
         <v>2.1</v>
       </c>
       <c r="AJ19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK19">
         <v>72</v>
       </c>
       <c r="AL19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM19">
         <v>80.900000000000006</v>
       </c>
       <c r="AN19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO19">
         <v>65</v>
       </c>
       <c r="AP19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ19">
         <v>7</v>
       </c>
       <c r="AR19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS19">
         <v>74.599999999999994</v>
       </c>
       <c r="AT19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU19">
         <v>0.5</v>
       </c>
       <c r="AV19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW19">
         <v>4.96</v>
       </c>
       <c r="AX19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AY19">
         <v>15.55</v>
@@ -7134,148 +7370,148 @@
         <v>216</v>
       </c>
       <c r="C20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E20">
         <v>0.5</v>
       </c>
       <c r="F20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G20">
         <v>26</v>
       </c>
       <c r="H20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I20">
         <v>1.2</v>
       </c>
       <c r="J20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K20">
         <v>18099</v>
       </c>
       <c r="L20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M20">
         <v>17568</v>
       </c>
       <c r="N20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O20">
         <v>32</v>
       </c>
       <c r="P20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q20">
         <v>49</v>
       </c>
       <c r="R20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S20">
         <v>19.47</v>
       </c>
       <c r="T20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U20">
         <v>26436</v>
       </c>
       <c r="V20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W20">
         <v>83</v>
       </c>
       <c r="X20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y20">
         <v>68</v>
       </c>
       <c r="Z20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA20">
         <v>466</v>
       </c>
       <c r="AB20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC20">
         <v>18.5</v>
       </c>
       <c r="AD20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE20">
         <v>15</v>
       </c>
       <c r="AF20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG20">
         <v>69</v>
       </c>
       <c r="AH20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI20">
         <v>1.9</v>
       </c>
       <c r="AJ20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK20">
         <v>64</v>
       </c>
       <c r="AL20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM20">
         <v>81.400000000000006</v>
       </c>
       <c r="AN20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO20">
         <v>74</v>
       </c>
       <c r="AP20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ20">
         <v>5.6</v>
       </c>
       <c r="AR20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS20">
         <v>62.5</v>
       </c>
       <c r="AT20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU20">
         <v>1.5</v>
       </c>
       <c r="AV20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW20">
         <v>6.37</v>
       </c>
       <c r="AX20" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AY20">
         <v>14.74</v>
@@ -7283,151 +7519,151 @@
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E21">
         <v>5.3</v>
       </c>
       <c r="F21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G21">
         <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I21">
         <v>1.1000000000000001</v>
       </c>
       <c r="J21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K21">
         <v>15614</v>
       </c>
       <c r="L21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M21">
         <v>17774</v>
       </c>
       <c r="N21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O21">
         <v>7.8</v>
       </c>
       <c r="P21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q21">
         <v>62</v>
       </c>
       <c r="R21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S21">
         <v>3.78</v>
       </c>
       <c r="T21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U21">
         <v>21399</v>
       </c>
       <c r="V21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W21">
         <v>82</v>
       </c>
       <c r="X21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y21">
         <v>83</v>
       </c>
       <c r="Z21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA21">
         <v>487</v>
       </c>
       <c r="AB21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC21">
         <v>17.2</v>
       </c>
       <c r="AD21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE21">
         <v>16</v>
       </c>
       <c r="AF21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG21">
         <v>76</v>
       </c>
       <c r="AH21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI21">
         <v>1.2</v>
       </c>
       <c r="AJ21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK21">
         <v>62</v>
       </c>
       <c r="AL21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM21">
         <v>75.7</v>
       </c>
       <c r="AN21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO21">
         <v>57</v>
       </c>
       <c r="AP21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ21">
         <v>5.3</v>
       </c>
       <c r="AR21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS21">
         <v>53.2</v>
       </c>
       <c r="AT21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU21">
         <v>1.2</v>
       </c>
       <c r="AV21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW21">
         <v>3.76</v>
       </c>
       <c r="AX21" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AY21">
         <v>15.04</v>
@@ -7435,151 +7671,151 @@
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G22">
         <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I22">
         <v>1.6</v>
       </c>
       <c r="J22" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K22">
         <v>27918</v>
       </c>
       <c r="L22" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M22">
         <v>54275</v>
       </c>
       <c r="N22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O22">
         <v>0.7</v>
       </c>
       <c r="P22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q22">
         <v>82</v>
       </c>
       <c r="R22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S22">
         <v>0.67</v>
       </c>
       <c r="T22" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="U22">
         <v>56789</v>
       </c>
       <c r="V22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W22">
         <v>96</v>
       </c>
       <c r="X22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y22">
         <v>73</v>
       </c>
       <c r="Z22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA22">
         <v>484</v>
       </c>
       <c r="AB22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC22">
         <v>19.600000000000001</v>
       </c>
       <c r="AD22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE22">
         <v>7</v>
       </c>
       <c r="AF22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG22">
         <v>97</v>
       </c>
       <c r="AH22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI22">
         <v>1.6</v>
       </c>
       <c r="AJ22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK22">
         <v>81</v>
       </c>
       <c r="AL22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM22">
         <v>82.1</v>
       </c>
       <c r="AN22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO22">
         <v>77</v>
       </c>
       <c r="AP22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ22">
         <v>7.5</v>
       </c>
       <c r="AR22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS22">
         <v>78.099999999999994</v>
       </c>
       <c r="AT22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU22">
         <v>0.3</v>
       </c>
       <c r="AV22" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AW22">
         <v>13.79</v>
       </c>
       <c r="AX22" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AY22">
         <v>14.13</v>
@@ -7590,148 +7826,148 @@
         <v>228</v>
       </c>
       <c r="C23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E23">
         <v>0.1</v>
       </c>
       <c r="F23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G23">
         <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I23">
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K23">
         <v>22969</v>
       </c>
       <c r="L23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M23">
         <v>31861</v>
       </c>
       <c r="N23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O23">
         <v>5</v>
       </c>
       <c r="P23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q23">
         <v>61</v>
       </c>
       <c r="R23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S23">
         <v>6.98</v>
       </c>
       <c r="T23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U23">
         <v>53286</v>
       </c>
       <c r="V23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W23">
         <v>95</v>
       </c>
       <c r="X23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y23">
         <v>79</v>
       </c>
       <c r="Z23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA23">
         <v>516</v>
       </c>
       <c r="AB23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC23">
         <v>17.8</v>
       </c>
       <c r="AD23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE23">
         <v>8</v>
       </c>
       <c r="AF23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG23">
         <v>82</v>
       </c>
       <c r="AH23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI23">
         <v>0.8</v>
       </c>
       <c r="AJ23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK23">
         <v>70</v>
       </c>
       <c r="AL23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM23">
         <v>81.099999999999994</v>
       </c>
       <c r="AN23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO23">
         <v>82</v>
       </c>
       <c r="AP23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ23">
         <v>6.8</v>
       </c>
       <c r="AR23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS23">
         <v>77</v>
       </c>
       <c r="AT23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU23">
         <v>0.8</v>
       </c>
       <c r="AV23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW23">
         <v>4.1100000000000003</v>
       </c>
       <c r="AX23" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AY23">
         <v>15.3</v>
@@ -7742,148 +7978,148 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D24" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E24">
         <v>4.4000000000000004</v>
       </c>
       <c r="F24" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G24">
         <v>21</v>
       </c>
       <c r="H24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I24">
         <v>1.2</v>
       </c>
       <c r="J24" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K24">
         <v>22116</v>
       </c>
       <c r="L24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M24">
         <v>50051</v>
       </c>
       <c r="N24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O24">
         <v>3.9</v>
       </c>
       <c r="P24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q24">
         <v>68</v>
       </c>
       <c r="R24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S24">
         <v>0.63</v>
       </c>
       <c r="T24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U24">
         <v>29635</v>
       </c>
       <c r="V24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W24">
         <v>86</v>
       </c>
       <c r="X24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y24">
         <v>85</v>
       </c>
       <c r="Z24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA24">
         <v>474</v>
       </c>
       <c r="AB24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC24">
         <v>15.9</v>
       </c>
       <c r="AD24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE24">
         <v>26</v>
       </c>
       <c r="AF24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG24">
         <v>65</v>
       </c>
       <c r="AH24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI24">
         <v>0.9</v>
       </c>
       <c r="AJ24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK24">
         <v>72</v>
       </c>
       <c r="AL24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM24">
         <v>82.1</v>
       </c>
       <c r="AN24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO24">
         <v>80</v>
       </c>
       <c r="AP24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ24">
         <v>7.1</v>
       </c>
       <c r="AR24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS24">
         <v>66.3</v>
       </c>
       <c r="AT24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU24">
         <v>1.8</v>
       </c>
       <c r="AV24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW24">
         <v>14.74</v>
       </c>
       <c r="AX24" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AY24">
         <v>13.94</v>
@@ -7891,151 +8127,151 @@
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E25">
         <v>0.8</v>
       </c>
       <c r="F25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G25">
         <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I25">
         <v>1.4</v>
       </c>
       <c r="J25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K25">
         <v>25004</v>
       </c>
       <c r="L25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M25">
         <v>56833</v>
       </c>
       <c r="N25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O25">
         <v>11.8</v>
       </c>
       <c r="P25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q25">
         <v>57</v>
       </c>
       <c r="R25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S25">
         <v>7.79</v>
       </c>
       <c r="T25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U25">
         <v>34744</v>
       </c>
       <c r="V25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W25">
         <v>91</v>
       </c>
       <c r="X25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y25">
         <v>59</v>
       </c>
       <c r="Z25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA25">
         <v>490</v>
       </c>
       <c r="AB25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC25">
         <v>16.8</v>
       </c>
       <c r="AD25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE25">
         <v>18</v>
       </c>
       <c r="AF25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG25">
         <v>70</v>
       </c>
       <c r="AH25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI25">
         <v>1.5</v>
       </c>
       <c r="AJ25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK25">
         <v>75</v>
       </c>
       <c r="AL25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM25">
         <v>82.8</v>
       </c>
       <c r="AN25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO25">
         <v>66</v>
       </c>
       <c r="AP25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ25">
         <v>5.8</v>
       </c>
       <c r="AR25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS25">
         <v>59.3</v>
       </c>
       <c r="AT25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU25">
         <v>0.8</v>
       </c>
       <c r="AV25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW25">
         <v>3.83</v>
       </c>
       <c r="AX25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AY25">
         <v>14.89</v>
@@ -8046,148 +8282,148 @@
         <v>205</v>
       </c>
       <c r="C26" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D26" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E26">
         <v>6.4</v>
       </c>
       <c r="F26" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G26">
         <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I26">
         <v>1.9</v>
       </c>
       <c r="J26" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K26">
         <v>27323</v>
       </c>
       <c r="L26" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M26">
         <v>92818</v>
       </c>
       <c r="N26" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O26">
         <v>2.4</v>
       </c>
       <c r="P26" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q26">
         <v>73</v>
       </c>
       <c r="R26" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S26">
         <v>1.36</v>
       </c>
       <c r="T26" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U26">
         <v>35672</v>
       </c>
       <c r="V26" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W26">
         <v>91</v>
       </c>
       <c r="X26" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="Y26">
         <v>94</v>
       </c>
       <c r="Z26" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA26">
         <v>540</v>
       </c>
       <c r="AB26" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC26">
         <v>16</v>
       </c>
       <c r="AD26" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE26">
         <v>16</v>
       </c>
       <c r="AF26" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG26">
         <v>87</v>
       </c>
       <c r="AH26" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI26">
         <v>1.3</v>
       </c>
       <c r="AJ26" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK26">
         <v>53</v>
       </c>
       <c r="AL26" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM26">
         <v>83.4</v>
       </c>
       <c r="AN26" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO26">
         <v>35</v>
       </c>
       <c r="AP26" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ26">
         <v>5.9</v>
       </c>
       <c r="AR26" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS26">
         <v>70.2</v>
       </c>
       <c r="AT26" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU26">
         <v>0.3</v>
       </c>
       <c r="AV26" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AW26">
         <v>21.89</v>
       </c>
       <c r="AX26" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AY26">
         <v>14.85</v>
@@ -8195,151 +8431,151 @@
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E27">
         <v>4.2</v>
       </c>
       <c r="F27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G27">
         <v>16</v>
       </c>
       <c r="H27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I27">
         <v>1.4</v>
       </c>
       <c r="J27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K27">
         <v>19372</v>
       </c>
       <c r="L27" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M27">
         <v>30852</v>
       </c>
       <c r="N27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O27">
         <v>2.1</v>
       </c>
       <c r="P27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q27">
         <v>65</v>
       </c>
       <c r="R27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S27">
         <v>0.01</v>
       </c>
       <c r="T27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U27">
         <v>36653</v>
       </c>
       <c r="V27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W27">
         <v>76</v>
       </c>
       <c r="X27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y27">
         <v>85</v>
       </c>
       <c r="Z27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA27">
         <v>542</v>
       </c>
       <c r="AB27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC27">
         <v>17.5</v>
       </c>
       <c r="AD27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE27">
         <v>29</v>
       </c>
       <c r="AF27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG27">
         <v>78</v>
       </c>
       <c r="AH27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI27">
         <v>2.4</v>
       </c>
       <c r="AJ27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK27">
         <v>76</v>
       </c>
       <c r="AL27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM27">
         <v>81.8</v>
       </c>
       <c r="AN27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO27">
         <v>35</v>
       </c>
       <c r="AP27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ27">
         <v>5.8</v>
       </c>
       <c r="AR27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS27">
         <v>67.7</v>
       </c>
       <c r="AT27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU27">
         <v>1.1000000000000001</v>
       </c>
       <c r="AV27" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AW27">
         <v>23.12</v>
       </c>
       <c r="AX27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AY27">
         <v>14.7</v>
@@ -8347,151 +8583,151 @@
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C28" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D28" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E28">
         <v>14.7</v>
       </c>
       <c r="F28" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G28">
         <v>26</v>
       </c>
       <c r="H28" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I28">
         <v>1.2</v>
       </c>
       <c r="J28" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K28">
         <v>13655</v>
       </c>
       <c r="L28" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M28">
         <v>9837</v>
       </c>
       <c r="N28" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="O28">
         <v>8</v>
       </c>
       <c r="P28" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q28">
         <v>66</v>
       </c>
       <c r="R28" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S28">
         <v>4.67</v>
       </c>
       <c r="T28" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="U28">
         <v>22270</v>
       </c>
       <c r="V28" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W28">
         <v>84</v>
       </c>
       <c r="X28" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y28">
         <v>90</v>
       </c>
       <c r="Z28" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA28">
         <v>494</v>
       </c>
       <c r="AB28" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AC28">
         <v>17.8</v>
       </c>
       <c r="AD28" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE28">
         <v>12</v>
       </c>
       <c r="AF28" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG28">
         <v>76</v>
       </c>
       <c r="AH28" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AI28">
         <v>2.4</v>
       </c>
       <c r="AJ28" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK28">
         <v>59</v>
       </c>
       <c r="AL28" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM28">
         <v>74.099999999999994</v>
       </c>
       <c r="AN28" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AO28">
         <v>50</v>
       </c>
       <c r="AP28" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ28">
         <v>5.9</v>
       </c>
       <c r="AR28" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS28">
         <v>61.6</v>
       </c>
       <c r="AT28" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU28">
         <v>6.1</v>
       </c>
       <c r="AV28" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW28">
         <v>2.4500000000000002</v>
       </c>
       <c r="AX28" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AY28">
         <v>13.83</v>
@@ -8499,151 +8735,151 @@
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E29">
         <v>0.1</v>
       </c>
       <c r="F29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G29">
         <v>21</v>
       </c>
       <c r="H29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K29">
         <v>40914</v>
       </c>
       <c r="L29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M29">
         <v>64500</v>
       </c>
       <c r="N29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O29">
         <v>2.1</v>
       </c>
       <c r="P29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q29">
         <v>67</v>
       </c>
       <c r="R29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S29">
         <v>1.6</v>
       </c>
       <c r="T29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U29">
         <v>61511</v>
       </c>
       <c r="V29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W29">
         <v>93</v>
       </c>
       <c r="X29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y29">
         <v>82</v>
       </c>
       <c r="Z29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA29">
         <v>490</v>
       </c>
       <c r="AB29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC29">
         <v>15.1</v>
       </c>
       <c r="AD29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE29">
         <v>15</v>
       </c>
       <c r="AF29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG29">
         <v>85</v>
       </c>
       <c r="AH29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI29">
         <v>1.5</v>
       </c>
       <c r="AJ29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK29">
         <v>91</v>
       </c>
       <c r="AL29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM29">
         <v>81.900000000000006</v>
       </c>
       <c r="AN29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO29">
         <v>72</v>
       </c>
       <c r="AP29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ29">
         <v>6.7</v>
       </c>
       <c r="AR29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS29">
         <v>70.599999999999994</v>
       </c>
       <c r="AT29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU29">
         <v>0.2</v>
       </c>
       <c r="AV29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW29">
         <v>3.27</v>
       </c>
       <c r="AX29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AY29">
         <v>15.17</v>
@@ -8651,151 +8887,151 @@
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E30">
         <v>4.2</v>
       </c>
       <c r="F30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G30">
         <v>22</v>
       </c>
       <c r="H30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K30">
         <v>12806</v>
       </c>
       <c r="L30" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M30">
         <v>9856</v>
       </c>
       <c r="N30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O30">
         <v>5.2</v>
       </c>
       <c r="P30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q30">
         <v>60</v>
       </c>
       <c r="R30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S30">
         <v>0.06</v>
       </c>
       <c r="T30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U30">
         <v>12850</v>
       </c>
       <c r="V30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W30">
         <v>75</v>
       </c>
       <c r="X30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y30">
         <v>34</v>
       </c>
       <c r="Z30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA30">
         <v>417</v>
       </c>
       <c r="AB30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC30">
         <v>14.4</v>
       </c>
       <c r="AD30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE30">
         <v>12</v>
       </c>
       <c r="AF30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG30">
         <v>68</v>
       </c>
       <c r="AH30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI30">
         <v>3.5</v>
       </c>
       <c r="AJ30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK30">
         <v>63</v>
       </c>
       <c r="AL30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM30">
         <v>74.599999999999994</v>
       </c>
       <c r="AN30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO30">
         <v>66</v>
       </c>
       <c r="AP30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ30">
         <v>6.2</v>
       </c>
       <c r="AR30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS30">
         <v>39.9</v>
       </c>
       <c r="AT30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU30">
         <v>23.4</v>
       </c>
       <c r="AV30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW30">
         <v>28.28</v>
       </c>
       <c r="AX30" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AY30">
         <v>12.8</v>
@@ -8803,151 +9039,151 @@
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G31">
         <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I31">
         <v>1.9</v>
       </c>
       <c r="J31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K31">
         <v>27759</v>
       </c>
       <c r="L31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M31">
         <v>71251</v>
       </c>
       <c r="N31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O31">
         <v>3.1</v>
       </c>
       <c r="P31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q31">
         <v>73</v>
       </c>
       <c r="R31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S31">
         <v>2.98</v>
       </c>
       <c r="T31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U31">
         <v>51003</v>
       </c>
       <c r="V31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W31">
         <v>88</v>
       </c>
       <c r="X31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y31">
         <v>76</v>
       </c>
       <c r="Z31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA31">
         <v>519</v>
       </c>
       <c r="AB31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC31">
         <v>17.899999999999999</v>
       </c>
       <c r="AD31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE31">
         <v>17</v>
       </c>
       <c r="AF31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG31">
         <v>94</v>
       </c>
       <c r="AH31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI31">
         <v>1.3</v>
       </c>
       <c r="AJ31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK31">
         <v>75</v>
       </c>
       <c r="AL31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM31">
         <v>81.400000000000006</v>
       </c>
       <c r="AN31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO31">
         <v>76</v>
       </c>
       <c r="AP31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ31">
         <v>7.3</v>
       </c>
       <c r="AR31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS31">
         <v>80.5</v>
       </c>
       <c r="AT31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU31">
         <v>0.8</v>
       </c>
       <c r="AV31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW31">
         <v>0.44</v>
       </c>
       <c r="AX31" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AY31">
         <v>15.9</v>
@@ -8955,151 +9191,151 @@
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C32" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D32" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E32">
         <v>0.3</v>
       </c>
       <c r="F32" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G32">
         <v>23</v>
       </c>
       <c r="H32" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I32">
         <v>2.4</v>
       </c>
       <c r="J32" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K32">
         <v>23213</v>
       </c>
       <c r="L32" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M32">
         <v>81271</v>
       </c>
       <c r="N32" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O32">
         <v>4.9000000000000004</v>
       </c>
       <c r="P32" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q32">
         <v>74</v>
       </c>
       <c r="R32" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S32">
         <v>0.78</v>
       </c>
       <c r="T32" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="U32">
         <v>45183</v>
       </c>
       <c r="V32" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W32">
         <v>99</v>
       </c>
       <c r="X32" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y32">
         <v>74</v>
       </c>
       <c r="Z32" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA32">
         <v>509</v>
       </c>
       <c r="AB32" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC32">
         <v>18</v>
       </c>
       <c r="AD32" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE32">
         <v>9</v>
       </c>
       <c r="AF32" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG32">
         <v>92</v>
       </c>
       <c r="AH32" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI32">
         <v>2.5</v>
       </c>
       <c r="AJ32" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK32">
         <v>77</v>
       </c>
       <c r="AL32" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM32">
         <v>81.400000000000006</v>
       </c>
       <c r="AN32" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO32">
         <v>90</v>
       </c>
       <c r="AP32" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ32">
         <v>7.4</v>
       </c>
       <c r="AR32" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS32">
         <v>64.400000000000006</v>
       </c>
       <c r="AT32" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU32">
         <v>1.2</v>
       </c>
       <c r="AV32" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW32">
         <v>13.78</v>
       </c>
       <c r="AX32" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AY32">
         <v>14.87</v>
@@ -9107,151 +9343,151 @@
     </row>
     <row r="33" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G33">
         <v>18</v>
       </c>
       <c r="H33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I33">
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K33">
         <v>33393</v>
       </c>
       <c r="L33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M33">
         <v>16930</v>
       </c>
       <c r="N33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O33">
         <v>1.5</v>
       </c>
       <c r="P33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q33">
         <v>75</v>
       </c>
       <c r="R33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S33">
         <v>0.41</v>
       </c>
       <c r="T33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U33">
         <v>51718</v>
       </c>
       <c r="V33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W33">
         <v>93</v>
       </c>
       <c r="X33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y33">
         <v>82</v>
       </c>
       <c r="Z33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA33">
         <v>496</v>
       </c>
       <c r="AB33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC33">
         <v>18</v>
       </c>
       <c r="AD33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE33">
         <v>6</v>
       </c>
       <c r="AF33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG33">
         <v>97</v>
       </c>
       <c r="AH33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI33">
         <v>1.9</v>
       </c>
       <c r="AJ33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK33">
         <v>78</v>
       </c>
       <c r="AL33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM33">
         <v>81.8</v>
       </c>
       <c r="AN33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO33">
         <v>76</v>
       </c>
       <c r="AP33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ33">
         <v>7.6</v>
       </c>
       <c r="AR33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS33">
         <v>89.6</v>
       </c>
       <c r="AT33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU33">
         <v>1</v>
       </c>
       <c r="AV33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW33">
         <v>3.05</v>
       </c>
       <c r="AX33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AY33">
         <v>15.56</v>
@@ -9259,151 +9495,151 @@
     </row>
     <row r="34" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E34">
         <v>3.1</v>
       </c>
       <c r="F34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G34">
         <v>22</v>
       </c>
       <c r="H34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I34">
         <v>1.1000000000000001</v>
       </c>
       <c r="J34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K34">
         <v>17820</v>
       </c>
       <c r="L34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M34">
         <v>12902</v>
       </c>
       <c r="N34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O34">
         <v>8.9</v>
       </c>
       <c r="P34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q34">
         <v>62</v>
       </c>
       <c r="R34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S34">
         <v>3.26</v>
       </c>
       <c r="T34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U34">
         <v>23649</v>
       </c>
       <c r="V34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W34">
         <v>86</v>
       </c>
       <c r="X34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y34">
         <v>91</v>
       </c>
       <c r="Z34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA34">
         <v>521</v>
       </c>
       <c r="AB34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC34">
         <v>17.899999999999999</v>
       </c>
       <c r="AD34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE34">
         <v>17</v>
       </c>
       <c r="AF34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG34">
         <v>80</v>
       </c>
       <c r="AH34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI34">
         <v>2.6</v>
       </c>
       <c r="AJ34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK34">
         <v>55</v>
       </c>
       <c r="AL34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM34">
         <v>77.099999999999994</v>
       </c>
       <c r="AN34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO34">
         <v>58</v>
       </c>
       <c r="AP34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ34">
         <v>6</v>
       </c>
       <c r="AR34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS34">
         <v>66.099999999999994</v>
       </c>
       <c r="AT34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU34">
         <v>1</v>
       </c>
       <c r="AV34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW34">
         <v>7.25</v>
       </c>
       <c r="AX34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AY34">
         <v>14.42</v>
@@ -9411,151 +9647,151 @@
     </row>
     <row r="35" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C35" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D35" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G35">
         <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I35">
         <v>1.7</v>
       </c>
       <c r="J35" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K35">
         <v>19882</v>
       </c>
       <c r="L35" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M35">
         <v>29563</v>
       </c>
       <c r="N35" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O35">
         <v>11.7</v>
       </c>
       <c r="P35" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q35">
         <v>63</v>
       </c>
       <c r="R35" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S35">
         <v>8.2799999999999994</v>
       </c>
       <c r="T35" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U35">
         <v>23977</v>
       </c>
       <c r="V35" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W35">
         <v>85</v>
       </c>
       <c r="X35" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y35">
         <v>43</v>
       </c>
       <c r="Z35" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA35">
         <v>488</v>
       </c>
       <c r="AB35" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC35">
         <v>17.399999999999999</v>
       </c>
       <c r="AD35" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE35">
         <v>10</v>
       </c>
       <c r="AF35" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG35">
         <v>89</v>
       </c>
       <c r="AH35" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI35">
         <v>1.2</v>
       </c>
       <c r="AJ35" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK35">
         <v>56</v>
       </c>
       <c r="AL35" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM35">
         <v>80.8</v>
       </c>
       <c r="AN35" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO35">
         <v>46</v>
       </c>
       <c r="AP35" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ35">
         <v>5.0999999999999996</v>
       </c>
       <c r="AR35" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS35">
         <v>69.2</v>
       </c>
       <c r="AT35" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU35">
         <v>0.9</v>
       </c>
       <c r="AV35" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW35">
         <v>9.77</v>
       </c>
       <c r="AX35" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AY35">
         <v>14.72</v>
@@ -9563,151 +9799,151 @@
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E36">
         <v>1.3</v>
       </c>
       <c r="F36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G36">
         <v>25</v>
       </c>
       <c r="H36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I36">
         <v>1.1000000000000001</v>
       </c>
       <c r="J36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K36">
         <v>18534</v>
       </c>
       <c r="L36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M36">
         <v>8896</v>
       </c>
       <c r="N36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O36">
         <v>10.7</v>
       </c>
       <c r="P36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q36">
         <v>61</v>
       </c>
       <c r="R36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S36">
         <v>8.8000000000000007</v>
       </c>
       <c r="T36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U36">
         <v>22151</v>
       </c>
       <c r="V36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W36">
         <v>92</v>
       </c>
       <c r="X36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y36">
         <v>91</v>
       </c>
       <c r="Z36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA36">
         <v>472</v>
       </c>
       <c r="AB36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC36">
         <v>16.2</v>
       </c>
       <c r="AD36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE36">
         <v>16</v>
       </c>
       <c r="AF36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG36">
         <v>81</v>
       </c>
       <c r="AH36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI36">
         <v>2.9</v>
       </c>
       <c r="AJ36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK36">
         <v>59</v>
       </c>
       <c r="AL36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM36">
         <v>76.5</v>
       </c>
       <c r="AN36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO36">
         <v>66</v>
       </c>
       <c r="AP36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ36">
         <v>6.2</v>
       </c>
       <c r="AR36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS36">
         <v>62.1</v>
       </c>
       <c r="AT36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU36">
         <v>1.2</v>
       </c>
       <c r="AV36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW36">
         <v>6.23</v>
       </c>
       <c r="AX36" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AY36">
         <v>14.92</v>
@@ -9715,151 +9951,151 @@
     </row>
     <row r="37" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E37">
         <v>0.6</v>
       </c>
       <c r="F37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G37">
         <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I37">
         <v>1.5</v>
       </c>
       <c r="J37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K37">
         <v>19130</v>
       </c>
       <c r="L37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M37">
         <v>17271</v>
       </c>
       <c r="N37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O37">
         <v>5.2</v>
       </c>
       <c r="P37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q37">
         <v>64</v>
       </c>
       <c r="R37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S37">
         <v>5.27</v>
       </c>
       <c r="T37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U37">
         <v>33068</v>
       </c>
       <c r="V37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W37">
         <v>89</v>
       </c>
       <c r="X37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y37">
         <v>86</v>
       </c>
       <c r="Z37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA37">
         <v>499</v>
       </c>
       <c r="AB37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC37">
         <v>18.3</v>
       </c>
       <c r="AD37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE37">
         <v>14</v>
       </c>
       <c r="AF37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG37">
         <v>91</v>
       </c>
       <c r="AH37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI37">
         <v>2.8</v>
       </c>
       <c r="AJ37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK37">
         <v>52</v>
       </c>
       <c r="AL37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM37">
         <v>80.400000000000006</v>
       </c>
       <c r="AN37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO37">
         <v>65</v>
       </c>
       <c r="AP37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ37">
         <v>5.7</v>
       </c>
       <c r="AR37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS37">
         <v>83.9</v>
       </c>
       <c r="AT37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU37">
         <v>0.4</v>
       </c>
       <c r="AV37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW37">
         <v>5.5</v>
       </c>
       <c r="AX37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AY37">
         <v>14.75</v>
@@ -9870,148 +10106,148 @@
         <v>235</v>
       </c>
       <c r="C38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E38">
         <v>0.1</v>
       </c>
       <c r="F38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G38">
         <v>23</v>
       </c>
       <c r="H38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I38">
         <v>1.9</v>
       </c>
       <c r="J38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K38">
         <v>22007</v>
       </c>
       <c r="L38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M38">
         <v>29819</v>
       </c>
       <c r="N38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O38">
         <v>26.6</v>
       </c>
       <c r="P38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q38">
         <v>57</v>
       </c>
       <c r="R38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S38">
         <v>12.92</v>
       </c>
       <c r="T38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U38">
         <v>36013</v>
       </c>
       <c r="V38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W38">
         <v>96</v>
       </c>
       <c r="X38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y38">
         <v>57</v>
       </c>
       <c r="Z38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA38">
         <v>490</v>
       </c>
       <c r="AB38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC38">
         <v>17.7</v>
       </c>
       <c r="AD38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE38">
         <v>12</v>
       </c>
       <c r="AF38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG38">
         <v>71</v>
       </c>
       <c r="AH38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI38">
         <v>1.6</v>
       </c>
       <c r="AJ38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK38">
         <v>73</v>
       </c>
       <c r="AL38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM38">
         <v>83.2</v>
       </c>
       <c r="AN38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO38">
         <v>72</v>
       </c>
       <c r="AP38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ38">
         <v>6.4</v>
       </c>
       <c r="AR38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS38">
         <v>81.599999999999994</v>
       </c>
       <c r="AT38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU38">
         <v>0.6</v>
       </c>
       <c r="AV38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW38">
         <v>5.61</v>
       </c>
       <c r="AX38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AY38">
         <v>15.93</v>
@@ -10019,151 +10255,151 @@
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G39">
         <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I39">
         <v>1.8</v>
       </c>
       <c r="J39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K39">
         <v>28859</v>
       </c>
       <c r="L39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M39">
         <v>69899</v>
       </c>
       <c r="N39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O39">
         <v>5.2</v>
       </c>
       <c r="P39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q39">
         <v>75</v>
       </c>
       <c r="R39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S39">
         <v>1.33</v>
       </c>
       <c r="T39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U39">
         <v>40994</v>
       </c>
       <c r="V39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W39">
         <v>92</v>
       </c>
       <c r="X39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y39">
         <v>82</v>
       </c>
       <c r="Z39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA39">
         <v>482</v>
       </c>
       <c r="AB39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC39">
         <v>19.100000000000001</v>
       </c>
       <c r="AD39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE39">
         <v>7</v>
       </c>
       <c r="AF39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG39">
         <v>95</v>
       </c>
       <c r="AH39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI39">
         <v>2</v>
       </c>
       <c r="AJ39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK39">
         <v>86</v>
       </c>
       <c r="AL39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM39">
         <v>82</v>
       </c>
       <c r="AN39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO39">
         <v>81</v>
       </c>
       <c r="AP39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ39">
         <v>7.3</v>
       </c>
       <c r="AR39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS39">
         <v>76.8</v>
       </c>
       <c r="AT39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU39">
         <v>0.8</v>
       </c>
       <c r="AV39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW39">
         <v>1.1000000000000001</v>
       </c>
       <c r="AX39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AY39">
         <v>15.18</v>
@@ -10171,151 +10407,151 @@
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G40">
         <v>22</v>
       </c>
       <c r="H40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I40">
         <v>1.8</v>
       </c>
       <c r="J40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K40">
         <v>35952</v>
       </c>
       <c r="L40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M40">
         <v>120265</v>
       </c>
       <c r="N40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O40">
         <v>1.7</v>
       </c>
       <c r="P40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q40">
         <v>80</v>
       </c>
       <c r="R40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S40">
         <v>1.71</v>
       </c>
       <c r="T40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U40">
         <v>57082</v>
       </c>
       <c r="V40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W40">
         <v>93</v>
       </c>
       <c r="X40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y40">
         <v>88</v>
       </c>
       <c r="Z40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA40">
         <v>518</v>
       </c>
       <c r="AB40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC40">
         <v>17.399999999999999</v>
       </c>
       <c r="AD40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE40">
         <v>17</v>
       </c>
       <c r="AF40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG40">
         <v>97</v>
       </c>
       <c r="AH40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI40">
         <v>2.6</v>
       </c>
       <c r="AJ40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK40">
         <v>48</v>
       </c>
       <c r="AL40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM40">
         <v>82.9</v>
       </c>
       <c r="AN40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO40">
         <v>81</v>
       </c>
       <c r="AP40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ40">
         <v>7.6</v>
       </c>
       <c r="AR40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS40">
         <v>87.4</v>
       </c>
       <c r="AT40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU40">
         <v>0.5</v>
       </c>
       <c r="AV40" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AW40">
         <v>6.34</v>
       </c>
       <c r="AX40" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AY40">
         <v>15.01</v>
@@ -10326,148 +10562,148 @@
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D41" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E41">
         <v>7.6</v>
       </c>
       <c r="F41" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G41">
         <v>21</v>
       </c>
       <c r="H41" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I41">
         <v>1.1000000000000001</v>
       </c>
       <c r="J41" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K41">
         <v>13471</v>
       </c>
       <c r="L41" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M41">
         <v>3886</v>
       </c>
       <c r="N41" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O41">
         <v>9.1</v>
       </c>
       <c r="P41" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q41">
         <v>50</v>
       </c>
       <c r="R41" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S41">
         <v>2.04</v>
       </c>
       <c r="T41" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="U41">
         <v>15992</v>
       </c>
       <c r="V41" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W41">
         <v>84</v>
       </c>
       <c r="X41" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y41">
         <v>36</v>
       </c>
       <c r="Z41" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA41">
         <v>462</v>
       </c>
       <c r="AB41" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC41">
         <v>16.899999999999999</v>
       </c>
       <c r="AD41" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE41">
         <v>17</v>
       </c>
       <c r="AF41" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG41">
         <v>63</v>
       </c>
       <c r="AH41" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI41">
         <v>2.1</v>
       </c>
       <c r="AJ41" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK41">
         <v>85</v>
       </c>
       <c r="AL41" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM41">
         <v>76.599999999999994</v>
       </c>
       <c r="AN41" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO41">
         <v>68</v>
       </c>
       <c r="AP41" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ41">
         <v>5.5</v>
       </c>
       <c r="AR41" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS41">
         <v>60.4</v>
       </c>
       <c r="AT41" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU41">
         <v>1.7</v>
       </c>
       <c r="AV41" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW41">
         <v>39.26</v>
       </c>
       <c r="AX41" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AY41">
         <v>12.24</v>
@@ -10478,148 +10714,148 @@
         <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D42" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E42">
         <v>0.4</v>
       </c>
       <c r="F42" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G42">
         <v>23</v>
       </c>
       <c r="H42" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I42">
         <v>1.9</v>
       </c>
       <c r="J42" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K42">
         <v>26687</v>
       </c>
       <c r="L42" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M42">
         <v>69927</v>
       </c>
       <c r="N42" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O42">
         <v>5.7</v>
       </c>
       <c r="P42" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q42">
         <v>73</v>
       </c>
       <c r="R42" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S42">
         <v>2.2200000000000002</v>
       </c>
       <c r="T42" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U42">
         <v>41659</v>
       </c>
       <c r="V42" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W42">
         <v>93</v>
       </c>
       <c r="X42" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y42">
         <v>79</v>
       </c>
       <c r="Z42" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA42">
         <v>502</v>
       </c>
       <c r="AB42" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC42">
         <v>16.7</v>
       </c>
       <c r="AD42" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE42">
         <v>11</v>
       </c>
       <c r="AF42" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG42">
         <v>87</v>
       </c>
       <c r="AH42" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI42">
         <v>2.9</v>
       </c>
       <c r="AJ42" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK42">
         <v>66</v>
       </c>
       <c r="AL42" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM42">
         <v>81.099999999999994</v>
       </c>
       <c r="AN42" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO42">
         <v>74</v>
       </c>
       <c r="AP42" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ42">
         <v>6.5</v>
       </c>
       <c r="AR42" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS42">
         <v>77.8</v>
       </c>
       <c r="AT42" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU42">
         <v>0.2</v>
       </c>
       <c r="AV42" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW42">
         <v>12.83</v>
       </c>
       <c r="AX42" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AY42">
         <v>14.87</v>
@@ -10630,148 +10866,148 @@
         <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D43" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E43">
         <v>0.1</v>
       </c>
       <c r="F43" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G43">
         <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I43">
         <v>2.4</v>
       </c>
       <c r="J43" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K43">
         <v>41071</v>
       </c>
       <c r="L43" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M43">
         <v>163268</v>
       </c>
       <c r="N43" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O43">
         <v>5.2</v>
       </c>
       <c r="P43" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q43">
         <v>68</v>
       </c>
       <c r="R43" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S43">
         <v>1.42</v>
       </c>
       <c r="T43" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U43">
         <v>57139</v>
       </c>
       <c r="V43" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W43">
         <v>90</v>
       </c>
       <c r="X43" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y43">
         <v>90</v>
       </c>
       <c r="Z43" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA43">
         <v>492</v>
       </c>
       <c r="AB43" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC43">
         <v>17.100000000000001</v>
       </c>
       <c r="AD43" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE43">
         <v>11</v>
       </c>
       <c r="AF43" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG43">
         <v>84</v>
       </c>
       <c r="AH43" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI43">
         <v>3.2</v>
       </c>
       <c r="AJ43" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK43">
         <v>67</v>
       </c>
       <c r="AL43" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM43">
         <v>78.8</v>
       </c>
       <c r="AN43" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO43">
         <v>88</v>
       </c>
       <c r="AP43" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ43">
         <v>6.9</v>
       </c>
       <c r="AR43" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS43">
         <v>73.900000000000006</v>
       </c>
       <c r="AT43" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU43">
         <v>5.2</v>
       </c>
       <c r="AV43" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW43">
         <v>11.69</v>
       </c>
       <c r="AX43" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AY43">
         <v>14.47</v>
@@ -10779,151 +11015,151 @@
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C44" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D44" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E44">
         <v>2.1</v>
       </c>
       <c r="F44" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G44">
         <v>21</v>
       </c>
       <c r="H44" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I44">
         <v>1.8</v>
       </c>
       <c r="J44" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K44">
         <v>29016</v>
       </c>
       <c r="L44" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M44">
         <v>84547</v>
       </c>
       <c r="N44" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O44">
         <v>6.3</v>
       </c>
       <c r="P44" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q44">
         <v>66</v>
       </c>
       <c r="R44" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S44">
         <v>2.58</v>
       </c>
       <c r="T44" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="U44">
         <v>40974</v>
       </c>
       <c r="V44" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W44">
         <v>88</v>
       </c>
       <c r="X44" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y44">
         <v>76</v>
       </c>
       <c r="Z44" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA44">
         <v>497</v>
       </c>
       <c r="AB44" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC44">
         <v>17.5</v>
       </c>
       <c r="AD44" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE44">
         <v>14</v>
       </c>
       <c r="AF44" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG44">
         <v>81</v>
       </c>
       <c r="AH44" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI44">
         <v>2.4</v>
       </c>
       <c r="AJ44" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK44">
         <v>68</v>
       </c>
       <c r="AL44" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM44">
         <v>79.900000000000006</v>
       </c>
       <c r="AN44" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO44">
         <v>69</v>
       </c>
       <c r="AP44" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ44">
         <v>6.5</v>
       </c>
       <c r="AR44" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS44">
         <v>68.3</v>
       </c>
       <c r="AT44" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU44">
         <v>4.0999999999999996</v>
       </c>
       <c r="AV44" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW44">
         <v>13.02</v>
       </c>
       <c r="AX44" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AY44">
         <v>14.91</v>
@@ -10931,154 +11167,154 @@
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B45" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C45" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D45" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E45">
         <v>6.7</v>
       </c>
       <c r="F45" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G45">
         <v>21</v>
       </c>
       <c r="H45" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I45">
         <v>0.9</v>
       </c>
       <c r="J45" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K45">
         <v>11487</v>
       </c>
       <c r="L45" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M45">
         <v>7566</v>
       </c>
       <c r="N45" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O45">
         <v>6.6</v>
       </c>
       <c r="P45" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q45">
         <v>67</v>
       </c>
       <c r="R45" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="S45">
         <v>0.81</v>
       </c>
       <c r="T45" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="U45">
         <v>10229</v>
       </c>
       <c r="V45" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W45">
         <v>90</v>
       </c>
       <c r="X45" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y45">
         <v>46</v>
       </c>
       <c r="Z45" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA45">
         <v>402</v>
       </c>
       <c r="AB45" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC45">
         <v>15.6</v>
       </c>
       <c r="AD45" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE45">
         <v>17</v>
       </c>
       <c r="AF45" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG45">
         <v>73</v>
       </c>
       <c r="AH45" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AI45">
         <v>1.3</v>
       </c>
       <c r="AJ45" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK45">
         <v>79</v>
       </c>
       <c r="AL45" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM45">
         <v>75</v>
       </c>
       <c r="AN45" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AO45">
         <v>70</v>
       </c>
       <c r="AP45" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ45">
         <v>6.5</v>
       </c>
       <c r="AR45" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS45">
         <v>39.5</v>
       </c>
       <c r="AT45" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU45">
         <v>26.7</v>
       </c>
       <c r="AV45" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW45">
         <v>9.4499999999999993</v>
       </c>
       <c r="AX45" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AY45">
         <v>14.27</v>
@@ -11086,151 +11322,151 @@
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C46" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D46" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E46">
         <v>14.4</v>
       </c>
       <c r="F46" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G46">
         <v>11</v>
       </c>
       <c r="H46" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I46">
         <v>0.9</v>
       </c>
       <c r="J46" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K46">
         <v>17006</v>
       </c>
       <c r="L46" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M46">
         <v>3687</v>
       </c>
       <c r="N46" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O46">
         <v>5.0999999999999996</v>
       </c>
       <c r="P46" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q46">
         <v>69</v>
       </c>
       <c r="R46" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S46">
         <v>1.45</v>
       </c>
       <c r="T46" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="U46">
         <v>26977</v>
       </c>
       <c r="V46" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W46">
         <v>91</v>
       </c>
       <c r="X46" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y46">
         <v>95</v>
       </c>
       <c r="Z46" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA46">
         <v>481</v>
       </c>
       <c r="AB46" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AC46">
         <v>16.100000000000001</v>
       </c>
       <c r="AD46" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE46">
         <v>14</v>
       </c>
       <c r="AF46" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG46">
         <v>49</v>
       </c>
       <c r="AH46" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AI46">
         <v>0.8</v>
       </c>
       <c r="AJ46" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK46">
         <v>65</v>
       </c>
       <c r="AL46" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM46">
         <v>70.7</v>
       </c>
       <c r="AN46" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AO46">
         <v>39</v>
       </c>
       <c r="AP46" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ46">
         <v>6</v>
       </c>
       <c r="AR46" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS46">
         <v>52.9</v>
       </c>
       <c r="AT46" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU46">
         <v>11.3</v>
       </c>
       <c r="AV46" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW46">
         <v>0.18</v>
       </c>
       <c r="AX46" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AY46">
         <v>14.91</v>
@@ -11238,151 +11474,151 @@
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C47" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D47" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E47">
         <v>20.5</v>
       </c>
       <c r="F47" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G47">
         <v>18</v>
       </c>
       <c r="H47" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I47">
         <v>0.7</v>
       </c>
       <c r="J47" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K47">
         <v>8712</v>
       </c>
       <c r="L47" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M47">
         <v>16937</v>
       </c>
       <c r="N47" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O47">
         <v>22.6</v>
       </c>
       <c r="P47" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q47">
         <v>43</v>
       </c>
       <c r="R47" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S47">
         <v>14.37</v>
       </c>
       <c r="T47" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="U47">
         <v>5429</v>
       </c>
       <c r="V47" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W47">
         <v>90</v>
       </c>
       <c r="X47" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y47">
         <v>65</v>
       </c>
       <c r="Z47" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AA47">
         <v>384</v>
       </c>
       <c r="AB47" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AC47">
         <v>15.4</v>
       </c>
       <c r="AD47" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AE47">
         <v>14</v>
       </c>
       <c r="AF47" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG47">
         <v>69</v>
       </c>
       <c r="AH47" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AI47">
         <v>1.6</v>
       </c>
       <c r="AJ47" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK47">
         <v>73</v>
       </c>
       <c r="AL47" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM47">
         <v>56.8</v>
       </c>
       <c r="AN47" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AO47">
         <v>67</v>
       </c>
       <c r="AP47" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AQ47">
         <v>4.9000000000000004</v>
       </c>
       <c r="AR47" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AS47">
         <v>39.799999999999997</v>
       </c>
       <c r="AT47" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AU47">
         <v>9.6</v>
       </c>
       <c r="AV47" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AW47">
         <v>18.07</v>
       </c>
       <c r="AX47" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AY47">
         <v>14.73</v>
@@ -11390,20 +11626,20 @@
     </row>
     <row r="48" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B50" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -11411,15 +11647,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+    <sheetView showRuler="0" topLeftCell="A31" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11430,37 +11663,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -11675,7 +11908,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B8" s="3">
         <v>81</v>
@@ -11710,7 +11943,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B9" s="3">
         <v>79</v>
@@ -11745,7 +11978,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B10" s="3">
         <v>78</v>
@@ -11780,7 +12013,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B11" s="3">
         <v>75</v>
@@ -11815,7 +12048,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B12" s="3">
         <v>71</v>
@@ -11885,7 +12118,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -11920,7 +12153,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B15" s="3">
         <v>94</v>
@@ -11955,7 +12188,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B16" s="3">
         <v>91</v>
@@ -11990,7 +12223,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B17" s="3">
         <v>90</v>
@@ -12025,7 +12258,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B18" s="3">
         <v>89</v>
@@ -12095,7 +12328,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B20" s="3">
         <v>82</v>
@@ -12165,7 +12398,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B22" s="3">
         <v>74</v>
@@ -12200,7 +12433,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B23" s="3">
         <v>71</v>
@@ -12235,7 +12468,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B24" s="3">
         <v>96</v>
@@ -12410,7 +12643,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B29" s="3">
         <v>71</v>
@@ -12550,7 +12783,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B33" s="3">
         <v>75</v>
